--- a/DB/old/All-at-once_DB_v1.xlsx
+++ b/DB/old/All-at-once_DB_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herth-joh01\Documents\GitHub_repo\SR_app\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA62BD8-F76F-4B66-B637-5C95DA385EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34FFD8B-F73E-4A70-B884-4FAA3BD4848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25200" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="screen" sheetId="2" r:id="rId1"/>
@@ -929,8 +929,8 @@
   <dimension ref="A1:M2341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A405" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K412" sqref="K412"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151:J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5984,7 +5984,7 @@
         <v>8.2100000000000006E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>12</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>12</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>1.47E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>12</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>12</v>
       </c>
@@ -6118,13 +6118,13 @@
         <v>10</v>
       </c>
       <c r="J148" s="4">
-        <v>1.2978862381395553E-2</v>
+        <v>9.1555413170338103E-3</v>
       </c>
       <c r="K148" s="6">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>12</v>
       </c>
@@ -6153,13 +6153,13 @@
         <v>20</v>
       </c>
       <c r="J149" s="4">
-        <v>9.1556364576698031E-3</v>
+        <v>2.1787611157977238E-3</v>
       </c>
       <c r="K149" s="6">
-        <v>3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.96E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>5.1499999999999997E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>12</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>12</v>
       </c>
@@ -6258,13 +6258,13 @@
         <v>200</v>
       </c>
       <c r="J152" s="4">
-        <v>7.0928659596080241E-6</v>
+        <v>1.0784121035056469E-5</v>
       </c>
       <c r="K152" s="6">
-        <v>6.6699999999999995E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+        <v>7.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>12</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>12</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>0.10639999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>12</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>7.8899999999999998E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>12</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>4.2299999999999997E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>12</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>12</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>7.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>12</v>
       </c>
@@ -15086,7 +15086,7 @@
         <v>9.2999999999999992E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>12</v>
       </c>
@@ -15121,7 +15121,7 @@
         <v>8.0999999999999996E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>12</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>5.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>12</v>
       </c>
@@ -15191,7 +15191,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3" t="s">
         <v>12</v>
       </c>
@@ -15226,7 +15226,7 @@
         <v>6.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>12</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>12</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>12</v>
       </c>
@@ -15331,7 +15331,7 @@
         <v>4.1999999999999997E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3" t="s">
         <v>12</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>12</v>
       </c>
@@ -15401,7 +15401,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>12</v>
       </c>
@@ -15436,7 +15436,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>12</v>
       </c>
@@ -40863,7 +40863,7 @@
       </c>
       <c r="L1132" s="4"/>
     </row>
-    <row r="1133" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1133" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1133" s="3" t="s">
         <v>12</v>
       </c>
@@ -40899,7 +40899,7 @@
       </c>
       <c r="L1133" s="4"/>
     </row>
-    <row r="1134" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1134" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1134" s="3" t="s">
         <v>12</v>
       </c>
@@ -40935,7 +40935,7 @@
       </c>
       <c r="L1134" s="4"/>
     </row>
-    <row r="1135" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1135" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1135" s="3" t="s">
         <v>12</v>
       </c>
@@ -40971,7 +40971,7 @@
       </c>
       <c r="L1135" s="4"/>
     </row>
-    <row r="1136" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1136" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1136" s="3" t="s">
         <v>12</v>
       </c>
@@ -41007,7 +41007,7 @@
       </c>
       <c r="L1136" s="4"/>
     </row>
-    <row r="1137" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1137" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1137" s="3" t="s">
         <v>12</v>
       </c>
@@ -41043,7 +41043,7 @@
       </c>
       <c r="L1137" s="4"/>
     </row>
-    <row r="1138" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1138" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1138" s="3" t="s">
         <v>12</v>
       </c>
@@ -41079,7 +41079,7 @@
       </c>
       <c r="L1138" s="4"/>
     </row>
-    <row r="1139" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1139" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3" t="s">
         <v>12</v>
       </c>
@@ -41115,7 +41115,7 @@
       </c>
       <c r="L1139" s="4"/>
     </row>
-    <row r="1140" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1140" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1140" s="3" t="s">
         <v>12</v>
       </c>
@@ -41151,7 +41151,7 @@
       </c>
       <c r="L1140" s="4"/>
     </row>
-    <row r="1141" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1141" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1141" s="3" t="s">
         <v>12</v>
       </c>
@@ -41187,7 +41187,7 @@
       </c>
       <c r="L1141" s="4"/>
     </row>
-    <row r="1142" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1142" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1142" s="3" t="s">
         <v>12</v>
       </c>
@@ -41223,7 +41223,7 @@
       </c>
       <c r="L1142" s="4"/>
     </row>
-    <row r="1143" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1143" s="3" t="s">
         <v>12</v>
       </c>
@@ -41259,7 +41259,7 @@
       </c>
       <c r="L1143" s="4"/>
     </row>
-    <row r="1144" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1144" s="3" t="s">
         <v>12</v>
       </c>
@@ -41295,7 +41295,7 @@
       </c>
       <c r="L1144" s="4"/>
     </row>
-    <row r="1145" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+    <row r="1145" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1145" s="3" t="s">
         <v>12</v>
       </c>
@@ -83548,13 +83548,12 @@
     </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="COG 11.2"/>
         <filter val="MCNP 6.1"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
-        <filter val="Lead"/>
+        <filter val="Water"/>
       </filters>
     </filterColumn>
     <filterColumn colId="6">
@@ -83564,7 +83563,7 @@
     </filterColumn>
     <filterColumn colId="7">
       <filters>
-        <filter val="P"/>
+        <filter val="N"/>
       </filters>
     </filterColumn>
   </autoFilter>
